--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,77</t>
+          <t>0,84; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,49</t>
+          <t>1,32; 2,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,0</t>
+          <t>1,18; 1,93</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,51</t>
+          <t>2,04; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,55</t>
+          <t>2,05; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,46</t>
+          <t>2,11; 2,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,03</t>
+          <t>2,4; 3,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,89</t>
+          <t>2,35; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,87</t>
+          <t>2,42; 2,83</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,44</t>
+          <t>2,06; 2,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,53</t>
+          <t>2,16; 2,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,43</t>
+          <t>2,18; 2,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,77</t>
+          <t>0,83; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,48</t>
+          <t>1,38; 2,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,93</t>
+          <t>1,24; 2,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,49</t>
+          <t>2,02; 2,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,56</t>
+          <t>2,06; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,45</t>
+          <t>2,09; 2,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,02</t>
+          <t>2,4; 3,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,88</t>
+          <t>2,34; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 2,83</t>
+          <t>2,43; 2,83</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,43</t>
+          <t>2,08; 2,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,5</t>
+          <t>2,14; 2,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
